--- a/TD_Tarasevich_4.xlsx
+++ b/TD_Tarasevich_4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="checklist" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="49">
   <si>
     <t>Создание компании с использованием метода "createcompany"</t>
   </si>
@@ -146,16 +146,6 @@
     <t>1)Открыть Postman                                           2)Выбрать метод запроса POST                           3)Ввести в запрос URL: http://users.bugred.ru/tasks/rest/deletetask       4)Ввести KEY VALUE :                                    a)email_owner  zxc@mail.com                         b)id_task  146                                                                         5)Нажать на Send</t>
   </si>
   <si>
-    <t>Failed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1)Открыть Postman                                                2)Выбрать метод запроса POST                      3)Ввести в запрос URL:  http://users.bugred.ru/tasks/rest/createcompany                 4)Ввести KEY VALUE :                                a)email_owner zxc@mail.com               b)company_name  Дельфин                    с)company_type  ОАО                            d)company_users  zxc(zxc@mail.com)          5)Нажать на Send                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1)Postman открылся       2)Выбран метод запроса POST 3)URL введен                                    4)Все подпункты KEY VALUE введены                                          5)В окне Pretty появляется "type": "error",
-"message": " company_users  не указаны сотрудники" </t>
-  </si>
-  <si>
     <t>TD_4.postman_collection.json Q_0</t>
   </si>
   <si>
@@ -169,6 +159,13 @@
   </si>
   <si>
     <t>TD_4.postman_collection.json Q_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)Открыть Postman                                                2)Выбрать метод запроса POST                      3)Ввести в запрос URL:  http://users.bugred.ru/tasks/rest/createcompany                 4)Ввести KEY VALUE :                                a)email_owner manager@mail.ru               b)company_name  Дельфин                    с)company_type  ОАО                            d)company_users  ["manager@mail.ru","qaws123@mail.com"]         5)Нажать на Send                     </t>
+  </si>
+  <si>
+    <t>1)Postman открылся       2)Выбран метод запроса POST 3)URL введен                                    4)Все подпункты KEY VALUE введены                                          5)В окне Pretty появляется  "type": "success",
+"id_company": 68,</t>
   </si>
 </sst>
 </file>
@@ -199,7 +196,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -224,12 +221,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -243,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -280,9 +271,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -587,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -637,8 +625,8 @@
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>42</v>
+      <c r="D3" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -693,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -754,10 +742,10 @@
         <v>25</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
@@ -771,16 +759,16 @@
         <v>30</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="150" x14ac:dyDescent="0.25">
@@ -806,7 +794,7 @@
         <v>25</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="180" x14ac:dyDescent="0.25">
@@ -832,7 +820,7 @@
         <v>25</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="135" x14ac:dyDescent="0.25">
@@ -858,10 +846,11 @@
         <v>25</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>